--- a/biology/Biochimie/Saul_Roseman/Saul_Roseman.xlsx
+++ b/biology/Biochimie/Saul_Roseman/Saul_Roseman.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Saul Roseman (né le 9 mars 1921 à Brooklyn à New York et mort le 2 juillet 2011) est un biochimiste américain de l'université Johns-Hopkins à Baltimore dans le Maryland. Parmi de nombreuses découvertes liées à la biochimie des glucides[1],[2],[3], il découvre le système phosphotransférase chez les bactéries[4].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Saul Roseman (né le 9 mars 1921 à Brooklyn à New York et mort le 2 juillet 2011) est un biochimiste américain de l'université Johns-Hopkins à Baltimore dans le Maryland. Parmi de nombreuses découvertes liées à la biochimie des glucides il découvre le système phosphotransférase chez les bactéries.
 </t>
         </is>
       </c>
@@ -512,6 +524,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -537,12 +551,14 @@
           <t>Prix et distinctions</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>1971 : membre de l'Académie américaine des arts et des sciences[5]
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>1971 : membre de l'Académie américaine des arts et des sciences
 1972 : Membre de l'Académie nationale des sciences
-1974 : Prix Rosenstiel (avec H. Ronald Kaback)[6]
-1981 : Prix Gairdner de la fondation Gairdner (en)[7]
+1974 : Prix Rosenstiel (avec H. Ronald Kaback)
+1981 : Prix Gairdner de la fondation Gairdner (en)
 1984 : Docteur honoris causa de l'université de Lund
 1993 : Prix Karl Meyer de la Society for Glycobiology</t>
         </is>
